--- a/20160715111645_testing_notes_1.xlsx
+++ b/20160715111645_testing_notes_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,7 +119,7 @@
     <t>note 14</t>
   </si>
   <si>
-    <t>note 15</t>
+    <t>note 16</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
